--- a/고객정보_시스템확인/Result/KS_Client_Information.xlsx
+++ b/고객정보_시스템확인/Result/KS_Client_Information.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RPA\고객정보_시스템확인\Result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC011B0-2D18-48DA-A6B1-1EB0A204C510}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F9C405D-66AD-4327-96B7-74FE02233872}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="936" windowWidth="23040" windowHeight="10416" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KS_Vendor_Information_Template" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="86">
   <si>
     <t>No.</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -94,19 +94,75 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>FU72098</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>EUR</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>XX97615</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>AZ79829</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>RON</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>DR69832</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>PO26319</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>KJ93404</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>USD</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>FT44139</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>NU74295</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>RI52540</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>BA92200</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>USD</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>XX97615</t>
+    <t>EQ75283</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>KI44163</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>HR70321</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB83622</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>RU90268</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>XY37806</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -122,6 +178,118 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>Ervin Wald</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> STR. DOBRE?TILOR nr. 4 bl. PC10 Ap. 5</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oradea</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Romania</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Elidia Gaulke</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 89 Rue FrÃƒÂ©dÃƒÂ©ric Chopin</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> VERTOU</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> France</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Marylou Kenworthy</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Via Silvio Spaventa 113</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Todiano</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Italy</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ewa Alcantar</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rudower Strasse 35</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Auw an der Kyll</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Germany</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normand Bently</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> STR. MIHAI VITEAZU nr. 6</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Targu Mures</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Garret Reising</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Via Venezia 37</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> San Filippo</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Allan Camara</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Neuer Jungfernstieg 65</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pfeffenhausen</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tiny Erhart</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> STR. VLADIMIRESCU TUDOR nr. 16</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Miercurea Ciuc</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>Camilla Escarcega</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -134,35 +302,75 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> Romania</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mayra Monzon</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 96 avenue Ferdinand de Lesseps</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> GRENOBLE</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> France</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Elidia Gaulke</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 89 Rue FrÃƒÂ©dÃƒÂ©ric Chopin</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> VERTOU</t>
+    <t>Kizzie Kohen</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Via Vipacco 136</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Trinita</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edison Byam</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Billwerder Neuer Deich 15</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bad Berneck</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clement Paulette</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Strada M.Kogalniceanu Bl.F3, Ap.2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Deva</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wilson Gau</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Strada Bresciana 135</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Canzano</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Veda Blaylock</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> LÃƒÂ¼tzowplatz 95</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dockweiler</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eloy Sandoz</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 90 Rue Joseph Vernet</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> BAGNEUX</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1451,13 +1659,13 @@
         <v>7</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="N5" s="11" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="O5" s="9"/>
       <c r="P5" s="12" t="s">
@@ -1466,40 +1674,40 @@
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="1">
-        <v>231605</v>
+        <v>427371</v>
       </c>
       <c r="E6" s="1">
-        <v>1518937</v>
+        <v>1957831</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="L6" s="1">
-        <v>1237279</v>
+        <v>1306359</v>
       </c>
       <c r="M6" s="1">
-        <v>281658</v>
+        <v>651472</v>
       </c>
       <c r="N6" s="1">
-        <v>1518937</v>
+        <v>1957831</v>
       </c>
       <c r="P6" s="5" t="s">
         <v>13</v>
@@ -1507,40 +1715,40 @@
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B7" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D7" s="1">
-        <v>412987</v>
+        <v>252503</v>
       </c>
       <c r="E7" s="1">
-        <v>-21305</v>
+        <v>711038</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="L7" s="1">
-        <v>-362415</v>
+        <v>924997</v>
       </c>
       <c r="M7" s="1">
-        <v>341110</v>
+        <v>-213959</v>
       </c>
       <c r="N7" s="1">
-        <v>-21305</v>
+        <v>711038</v>
       </c>
       <c r="P7" s="5" t="s">
         <v>13</v>
@@ -1548,404 +1756,1028 @@
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B8" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="1">
-        <v>909876</v>
+        <v>978088</v>
       </c>
       <c r="E8" s="1">
-        <v>615844</v>
+        <v>-14608</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="L8" s="1">
-        <v>1154229</v>
+        <v>93541</v>
       </c>
       <c r="M8" s="1">
-        <v>-538385</v>
+        <v>-108149</v>
       </c>
       <c r="N8" s="1">
-        <v>615844</v>
+        <v>-14608</v>
       </c>
       <c r="P8" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="P9" s="5"/>
+      <c r="B9" s="1">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="1">
+        <v>528083</v>
+      </c>
+      <c r="E9" s="1">
+        <v>-1347744</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L9" s="1">
+        <v>-544841</v>
+      </c>
+      <c r="M9" s="1">
+        <v>-802903</v>
+      </c>
+      <c r="N9" s="1">
+        <v>-1347744</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="P10" s="5"/>
+      <c r="B10" s="1">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="1">
+        <v>714675</v>
+      </c>
+      <c r="E10" s="1">
+        <v>-224566</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L10" s="1">
+        <v>-719</v>
+      </c>
+      <c r="M10" s="1">
+        <v>-223847</v>
+      </c>
+      <c r="N10" s="1">
+        <v>-224566</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="P11" s="5"/>
+      <c r="B11" s="1">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="1">
+        <v>142360</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2378459</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L11" s="1">
+        <v>1873254</v>
+      </c>
+      <c r="M11" s="1">
+        <v>505205</v>
+      </c>
+      <c r="N11" s="1">
+        <v>2378459</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="P12" s="5"/>
+      <c r="B12" s="1">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="1">
+        <v>695268</v>
+      </c>
+      <c r="E12" s="1">
+        <v>-1051476</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L12" s="1">
+        <v>-973080</v>
+      </c>
+      <c r="M12" s="1">
+        <v>-78396</v>
+      </c>
+      <c r="N12" s="1">
+        <v>-1051476</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="P13" s="5"/>
+      <c r="B13" s="1">
+        <v>8</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="1">
+        <v>252030</v>
+      </c>
+      <c r="E13" s="1">
+        <v>-1033480</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L13" s="1">
+        <v>-696051</v>
+      </c>
+      <c r="M13" s="1">
+        <v>-337429</v>
+      </c>
+      <c r="N13" s="1">
+        <v>-1033480</v>
+      </c>
+      <c r="P13" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="P14" s="5"/>
+      <c r="B14" s="1">
+        <v>9</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="1">
+        <v>884728</v>
+      </c>
+      <c r="E14" s="1">
+        <v>995109</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L14" s="1">
+        <v>1014414</v>
+      </c>
+      <c r="M14" s="1">
+        <v>-19305</v>
+      </c>
+      <c r="N14" s="1">
+        <v>995109</v>
+      </c>
+      <c r="P14" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="P15" s="5"/>
+      <c r="B15" s="1">
+        <v>10</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="1">
+        <v>293207</v>
+      </c>
+      <c r="E15" s="1">
+        <v>66835</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L15" s="1">
+        <v>69950</v>
+      </c>
+      <c r="M15" s="1">
+        <v>-3115</v>
+      </c>
+      <c r="N15" s="1">
+        <v>66835</v>
+      </c>
+      <c r="P15" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="P16" s="5"/>
+      <c r="B16" s="1">
+        <v>11</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="1">
+        <v>221657</v>
+      </c>
+      <c r="E16" s="1">
+        <v>413860</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L16" s="1">
+        <v>1333732</v>
+      </c>
+      <c r="M16" s="1">
+        <v>-919872</v>
+      </c>
+      <c r="N16" s="1">
+        <v>413860</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="P17" s="5"/>
+      <c r="B17" s="1">
+        <v>12</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="1">
+        <v>463631</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1609462</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L17" s="1">
+        <v>977068</v>
+      </c>
+      <c r="M17" s="1">
+        <v>632394</v>
+      </c>
+      <c r="N17" s="1">
+        <v>1609462</v>
+      </c>
+      <c r="P17" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="P18" s="5"/>
+      <c r="B18" s="1">
+        <v>13</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="1">
+        <v>558128</v>
+      </c>
+      <c r="E18" s="1">
+        <v>-273193</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L18" s="1">
+        <v>-110156</v>
+      </c>
+      <c r="M18" s="1">
+        <v>-163037</v>
+      </c>
+      <c r="N18" s="1">
+        <v>-273193</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="P19" s="5"/>
+      <c r="B19" s="1">
+        <v>14</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="1">
+        <v>709944</v>
+      </c>
+      <c r="E19" s="1">
+        <v>717030</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L19" s="1">
+        <v>274655</v>
+      </c>
+      <c r="M19" s="1">
+        <v>442375</v>
+      </c>
+      <c r="N19" s="1">
+        <v>717030</v>
+      </c>
+      <c r="P19" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="P20" s="5"/>
+      <c r="B20" s="1">
+        <v>15</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="1">
+        <v>613472</v>
+      </c>
+      <c r="E20" s="1">
+        <v>-276810</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L20" s="1">
+        <v>-490683</v>
+      </c>
+      <c r="M20" s="1">
+        <v>213873</v>
+      </c>
+      <c r="N20" s="1">
+        <v>-276810</v>
+      </c>
+      <c r="P20" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="P21" s="5"/>
+      <c r="B21" s="1">
+        <v>16</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="1">
+        <v>980763</v>
+      </c>
+      <c r="E21" s="1">
+        <v>406485</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L21" s="1">
+        <v>913154</v>
+      </c>
+      <c r="M21" s="1">
+        <v>-506669</v>
+      </c>
+      <c r="N21" s="1">
+        <v>406485</v>
+      </c>
+      <c r="P21" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="P22" s="5"/>
+      <c r="B22" s="1">
+        <v>17</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="1">
+        <v>749095</v>
+      </c>
+      <c r="E22" s="1">
+        <v>-251365</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L22" s="1">
+        <v>-491434</v>
+      </c>
+      <c r="M22" s="1">
+        <v>240069</v>
+      </c>
+      <c r="N22" s="1">
+        <v>-251365</v>
+      </c>
+      <c r="P22" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="P23" s="5"/>
+      <c r="B23" s="1">
+        <v>18</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="1">
+        <v>901396</v>
+      </c>
+      <c r="E23" s="1">
+        <v>2547629</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L23" s="1">
+        <v>2076724</v>
+      </c>
+      <c r="M23" s="1">
+        <v>470905</v>
+      </c>
+      <c r="N23" s="1">
+        <v>2547629</v>
+      </c>
+      <c r="P23" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="P24" s="5"/>
+      <c r="B24" s="1">
+        <v>19</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="1">
+        <v>980917</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1418116</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L24" s="1">
+        <v>828138</v>
+      </c>
+      <c r="M24" s="1">
+        <v>589978</v>
+      </c>
+      <c r="N24" s="1">
+        <v>1418116</v>
+      </c>
+      <c r="P24" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="P25" s="5"/>
+      <c r="B25" s="1">
+        <v>20</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="1">
+        <v>794208</v>
+      </c>
+      <c r="E25" s="1">
+        <v>-566496</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L25" s="1">
+        <v>-751810</v>
+      </c>
+      <c r="M25" s="1">
+        <v>185314</v>
+      </c>
+      <c r="N25" s="1">
+        <v>-566496</v>
+      </c>
+      <c r="P25" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="P26" s="5"/>
+      <c r="B26" s="1">
+        <v>21</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="1">
+        <v>250480</v>
+      </c>
+      <c r="E26" s="1">
+        <v>-430789</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L26" s="1">
+        <v>-225845</v>
+      </c>
+      <c r="M26" s="1">
+        <v>-204944</v>
+      </c>
+      <c r="N26" s="1">
+        <v>-430789</v>
+      </c>
+      <c r="P26" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="P27" s="5"/>
+      <c r="B27" s="1">
+        <v>22</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="1">
+        <v>584265</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1896786</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L27" s="1">
+        <v>1394849</v>
+      </c>
+      <c r="M27" s="1">
+        <v>501937</v>
+      </c>
+      <c r="N27" s="1">
+        <v>1896786</v>
+      </c>
+      <c r="P27" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="P28" s="5"/>
+      <c r="B28" s="1">
+        <v>23</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="1">
+        <v>358139</v>
+      </c>
+      <c r="E28" s="1">
+        <v>-688031</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L28" s="1">
+        <v>-1362423</v>
+      </c>
+      <c r="M28" s="1">
+        <v>674392</v>
+      </c>
+      <c r="N28" s="1">
+        <v>-688031</v>
+      </c>
+      <c r="P28" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="P29" s="5"/>
+      <c r="B29" s="1">
+        <v>24</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="1">
+        <v>538103</v>
+      </c>
+      <c r="E29" s="1">
+        <v>-110596</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L29" s="1">
+        <v>-41516</v>
+      </c>
+      <c r="M29" s="1">
+        <v>-69080</v>
+      </c>
+      <c r="N29" s="1">
+        <v>-110596</v>
+      </c>
+      <c r="P29" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="P30" s="5"/>
+      <c r="B30" s="1">
+        <v>25</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="1">
+        <v>419749</v>
+      </c>
+      <c r="E30" s="1">
+        <v>-1846084</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L30" s="1">
+        <v>-523334</v>
+      </c>
+      <c r="M30" s="1">
+        <v>-1322750</v>
+      </c>
+      <c r="N30" s="1">
+        <v>-1846084</v>
+      </c>
+      <c r="P30" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="P31" s="5"/>
+      <c r="B31" s="1">
+        <v>26</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" s="1">
+        <v>149442</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1471030</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L31" s="1">
+        <v>1100755</v>
+      </c>
+      <c r="M31" s="1">
+        <v>370275</v>
+      </c>
+      <c r="N31" s="1">
+        <v>1471030</v>
+      </c>
+      <c r="P31" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="P32" s="5"/>
+      <c r="B32" s="1">
+        <v>27</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="1">
+        <v>867233</v>
+      </c>
+      <c r="E32" s="1">
+        <v>-399186</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L32" s="1">
+        <v>-556471</v>
+      </c>
+      <c r="M32" s="1">
+        <v>157285</v>
+      </c>
+      <c r="N32" s="1">
+        <v>-399186</v>
+      </c>
+      <c r="P32" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B33" s="1"/>
